--- a/biology/Botanique/Gomphostigma_virgatum/Gomphostigma_virgatum.xlsx
+++ b/biology/Botanique/Gomphostigma_virgatum/Gomphostigma_virgatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gomphostigma virgatum est une espèce de plantes de la famille des Scrofulariacées originaire du sud de l'Afrique.
 </t>
@@ -511,12 +523,14 @@
           <t>Position taxinomique et historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme le genre, Gomphostigma virgatum est actuellement placée dans la famille des Scrophulariaceae, tribu des Buddlejeae.
-En 1782, Carl von Linné le Jeune décrit la première fois cette plante dans le genre Buddleja : Buddleja virgata L.f.[1].
-En 1888, Henri Ernest Baillon la place dans le genre Gomphostigma : Gomphostigma virgatum (L.f.) Baill.[2].
-En 1898, Carl Ernst Otto Kuntze place la plante dans la famille des Loganiacées ; par la même occasion, il fait de Gomphostigma scorpioides Turcz. un synonyme de Gomphostigma virgatum[3].
+En 1782, Carl von Linné le Jeune décrit la première fois cette plante dans le genre Buddleja : Buddleja virgata L.f..
+En 1888, Henri Ernest Baillon la place dans le genre Gomphostigma : Gomphostigma virgatum (L.f.) Baill..
+En 1898, Carl Ernst Otto Kuntze place la plante dans la famille des Loganiacées ; par la même occasion, il fait de Gomphostigma scorpioides Turcz. un synonyme de Gomphostigma virgatum.
 La classification phylogénétique AGP III a inclus ce genre dans la famille des Scrofulariacées.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Gomphostigma virgatum forme de petits arbustes, érigés, pouvant atteindre trois mètres de haut, persistants. La ressemblance de la ramure à l'osier - par ses tiges effilées - explique l'épithète spécifique.
 Les feuilles, fines, gris argenté, sont opposées et sessiles.
@@ -581,7 +597,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les espèces du genre sont originaires du sud de l'Afrique : Afrique du Sud, Namibie, Zimbabwe.
 L'usage ornemental de Gomphostigma virgata l'a diffusée dans l'ensemble des pays à climat tempéré doux. Une dénomination horticole est très répandue :
